--- a/techniqo/data_new_ticker/BANDHANBNK.xlsx
+++ b/techniqo/data_new_ticker/BANDHANBNK.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G611"/>
+  <dimension ref="A1:G613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21771,6 +21771,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>302</v>
+      </c>
+      <c r="C612" t="n">
+        <v>305</v>
+      </c>
+      <c r="D612" t="n">
+        <v>296.4</v>
+      </c>
+      <c r="E612" t="n">
+        <v>303.7</v>
+      </c>
+      <c r="F612" t="n">
+        <v>12178224</v>
+      </c>
+      <c r="G612" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>304.7</v>
+      </c>
+      <c r="C613" t="n">
+        <v>307.7</v>
+      </c>
+      <c r="D613" t="n">
+        <v>303</v>
+      </c>
+      <c r="E613" t="n">
+        <v>305.1</v>
+      </c>
+      <c r="F613" t="n">
+        <v>7270902</v>
+      </c>
+      <c r="G613" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/BANDHANBNK.xlsx
+++ b/techniqo/data_new_ticker/BANDHANBNK.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G613"/>
+  <dimension ref="A1:G615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21821,6 +21821,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>301.75</v>
+      </c>
+      <c r="C614" t="n">
+        <v>309</v>
+      </c>
+      <c r="D614" t="n">
+        <v>300.65</v>
+      </c>
+      <c r="E614" t="n">
+        <v>305.3</v>
+      </c>
+      <c r="F614" t="n">
+        <v>6786115</v>
+      </c>
+      <c r="G614" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>306</v>
+      </c>
+      <c r="C615" t="n">
+        <v>307.7</v>
+      </c>
+      <c r="D615" t="n">
+        <v>294.15</v>
+      </c>
+      <c r="E615" t="n">
+        <v>298.75</v>
+      </c>
+      <c r="F615" t="n">
+        <v>14179997</v>
+      </c>
+      <c r="G615" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
